--- a/vendor/gems/omni/db/import/categories.xlsx
+++ b/vendor/gems/omni/db/import/categories.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1890" windowWidth="22095" windowHeight="8130"/>
+    <workbookView xWindow="1800" yWindow="1900" windowWidth="22100" windowHeight="8140"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -73,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1022,23 +1027,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="4" customWidth="1"/>
     <col min="6" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
@@ -1169,5 +1174,10 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>